--- a/실무_엑셀_예제_파일/Chapter07/07-007.xlsx
+++ b/실무_엑셀_예제_파일/Chapter07/07-007.xlsx
@@ -1,42 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711A1C1C-4B43-4629-94FF-4E9CC5B3BAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6550938C-D94E-48CF-BB4B-23AE6123FF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22680" windowHeight="14592" xr2:uid="{569203B2-FCA9-458A-A62F-4C67712AD00B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{569203B2-FCA9-458A-A62F-4C67712AD00B}"/>
   </bookViews>
   <sheets>
     <sheet name="서울시총조사인구" sheetId="1" r:id="rId1"/>
     <sheet name="원본데이터" sheetId="2" r:id="rId2"/>
     <sheet name="메타정보" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="346">
   <si>
     <t>행정구역별(읍면동)</t>
   </si>
@@ -1002,6 +993,85 @@
   <si>
     <t>총인구</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용산구</t>
+  </si>
+  <si>
+    <t>용산구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종로구</t>
+  </si>
+  <si>
+    <t>중구</t>
+  </si>
+  <si>
+    <t>성동구</t>
+  </si>
+  <si>
+    <t>광진구</t>
+  </si>
+  <si>
+    <t>동대문구</t>
+  </si>
+  <si>
+    <t>중랑구</t>
+  </si>
+  <si>
+    <t>성북구</t>
+  </si>
+  <si>
+    <t>강북구</t>
+  </si>
+  <si>
+    <t>도봉구</t>
+  </si>
+  <si>
+    <t>노원구</t>
+  </si>
+  <si>
+    <t>은평구</t>
+  </si>
+  <si>
+    <t>서대문구</t>
+  </si>
+  <si>
+    <t>마포구</t>
+  </si>
+  <si>
+    <t>양천구</t>
+  </si>
+  <si>
+    <t>강서구</t>
+  </si>
+  <si>
+    <t>구로구</t>
+  </si>
+  <si>
+    <t>금천구</t>
+  </si>
+  <si>
+    <t>영등포구</t>
+  </si>
+  <si>
+    <t>동작구</t>
+  </si>
+  <si>
+    <t>관악구</t>
+  </si>
+  <si>
+    <t>서초구</t>
+  </si>
+  <si>
+    <t>강남구</t>
+  </si>
+  <si>
+    <t>송파구</t>
+  </si>
+  <si>
+    <t>강동구</t>
   </si>
 </sst>
 </file>
@@ -1191,23 +1261,16 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1219,14 +1282,21 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1544,424 +1614,631 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EA6995-03A6-472C-A6D0-08DB097E37B4}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.59765625" customWidth="1"/>
-    <col min="2" max="2" width="17.59765625" customWidth="1"/>
-    <col min="3" max="5" width="18.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.8984375" customWidth="1"/>
-    <col min="7" max="7" width="3.796875" customWidth="1"/>
-    <col min="8" max="8" width="12.796875" customWidth="1"/>
-    <col min="9" max="9" width="16.09765625" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" customWidth="1"/>
+    <col min="2" max="2" width="17.58203125" customWidth="1"/>
+    <col min="3" max="5" width="18.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.9140625" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
+    <col min="9" max="9" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="13" t="s">
+    <row r="1" spans="2:9" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="2:9" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="2:9" ht="10.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="E4" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" s="16" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="11" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="18">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" s="15">
         <v>151291</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="15">
         <v>73062</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="15">
         <v>78229</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="18">
+      <c r="F6">
+        <f>LEN(B6)</f>
+        <v>3</v>
+      </c>
+      <c r="G6" t="str">
+        <f>TRIM(B6)</f>
+        <v>종로구</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I6" s="12">
+        <f>VLOOKUP(H6, $B$5:$E$31, 2, 0)</f>
+        <v>225882</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="15">
         <v>128744</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="15">
         <v>62147</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="15">
         <v>66597</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="18">
+      <c r="F7">
+        <f t="shared" ref="F7:F30" si="0">LEN(B7)</f>
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" ref="G7:G30" si="1">TRIM(B7)</f>
+        <v>중구</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" s="15">
         <v>225882</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="15">
         <v>109162</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="15">
         <v>116720</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>용산구</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" s="15">
         <v>291918</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="15">
         <v>142128</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="15">
         <v>149790</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="18">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>성동구</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C10" s="15">
         <v>353967</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="15">
         <v>169925</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="15">
         <v>184042</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="18">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>광진구</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B11" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C11" s="15">
         <v>351057</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="15">
         <v>171484</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="15">
         <v>179573</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="18">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>동대문구</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="15">
         <v>385663</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="15">
         <v>189537</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="15">
         <v>196126</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="18">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>중랑구</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" s="15">
         <v>438833</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="15">
         <v>209682</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="15">
         <v>229151</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="18">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>성북구</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="15">
         <v>299535</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="15">
         <v>144779</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="15">
         <v>154756</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="18">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>강북구</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" s="15">
         <v>315979</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="15">
         <v>153080</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="15">
         <v>162899</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B16" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="18">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>도봉구</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C16" s="15">
         <v>511982</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="15">
         <v>246317</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="15">
         <v>265665</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="18">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>노원구</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="C17" s="15">
         <v>463102</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="15">
         <v>221828</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="15">
         <v>241274</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="18">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>은평구</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="C18" s="15">
         <v>317209</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="15">
         <v>148696</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="15">
         <v>168513</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="18">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>서대문구</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="C19" s="15">
         <v>365612</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="15">
         <v>171161</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="15">
         <v>194451</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="18">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>마포구</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B20" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="C20" s="15">
         <v>439068</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="15">
         <v>214978</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="15">
         <v>224090</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="18">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>양천구</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B21" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="C21" s="15">
         <v>564854</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="15">
         <v>271779</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="15">
         <v>293075</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="18">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>강서구</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B22" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C22" s="15">
         <v>435442</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="15">
         <v>216855</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="15">
         <v>218587</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="18">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>구로구</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B23" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C23" s="15">
         <v>249419</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="15">
         <v>126490</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="15">
         <v>122929</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="18">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>금천구</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B24" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="C24" s="15">
         <v>403619</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="15">
         <v>200678</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="15">
         <v>202941</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B25" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="18">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>영등포구</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B25" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C25" s="15">
         <v>392772</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="15">
         <v>189611</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="15">
         <v>203161</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="18">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>동작구</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B26" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C26" s="15">
         <v>502641</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="15">
         <v>250850</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="15">
         <v>251791</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="18">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>관악구</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B27" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="C27" s="15">
         <v>401749</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="15">
         <v>192081</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="15">
         <v>209668</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="18">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>서초구</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B28" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="C28" s="15">
         <v>508135</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="15">
         <v>243322</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="15">
         <v>264813</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B29" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="18">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>강남구</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B29" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="C29" s="15">
         <v>643288</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="15">
         <v>309802</v>
       </c>
-      <c r="E29" s="18">
+      <c r="E29" s="15">
         <v>333486</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="20">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>송파구</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C30" s="17">
         <v>444434</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="17">
         <v>218299</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="17">
         <v>226135</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="10" t="s">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>강동구</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B31" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="9">
         <f>SUM(C6:C30)</f>
         <v>9586195</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="9">
         <f>SUM(D6:D30)</f>
         <v>4647733</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="9">
         <f>SUM(E6:E30)</f>
         <v>4938462</v>
       </c>
@@ -1984,92 +2261,92 @@
       <selection sqref="A1:U326"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="2" customWidth="1"/>
-    <col min="2" max="7" width="18.69921875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.3984375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="15.59765625" style="2" customWidth="1"/>
-    <col min="11" max="12" width="18.69921875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.59765625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16.59765625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="18.69921875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.3984375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="18.69921875" style="2" customWidth="1"/>
-    <col min="18" max="18" width="14.09765625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="16.3984375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="24.3984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.58203125" style="2" customWidth="1"/>
+    <col min="2" max="7" width="18.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.4140625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="15.58203125" style="2" customWidth="1"/>
+    <col min="11" max="12" width="18.6640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="14.58203125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.58203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="16.4140625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="14.08203125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.4140625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="24.4140625" style="2" customWidth="1"/>
     <col min="21" max="21" width="19.5" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="8.796875" style="2"/>
+    <col min="22" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="20" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2133,7 +2410,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -2198,7 +2475,7 @@
         <v>1000903</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -2263,7 +2540,7 @@
         <v>74804</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -2328,7 +2605,7 @@
         <v>103889</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -2393,7 +2670,7 @@
         <v>822210</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -2458,7 +2735,7 @@
         <v>248125</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
@@ -2523,7 +2800,7 @@
         <v>5663</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -2588,7 +2865,7 @@
         <v>5695</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
@@ -2653,7 +2930,7 @@
         <v>6611</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -2718,7 +2995,7 @@
         <v>6092</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -2783,7 +3060,7 @@
         <v>8065</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
@@ -2848,7 +3125,7 @@
         <v>11084</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2913,7 +3190,7 @@
         <v>4471</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
@@ -2978,7 +3255,7 @@
         <v>3730</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -3043,7 +3320,7 @@
         <v>2539</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -3108,7 +3385,7 @@
         <v>4127</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -3173,7 +3450,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
@@ -3238,7 +3515,7 @@
         <v>9905</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
@@ -3303,7 +3580,7 @@
         <v>6083</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
@@ -3368,7 +3645,7 @@
         <v>15829</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
@@ -3433,7 +3710,7 @@
         <v>6567</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
@@ -3498,7 +3775,7 @@
         <v>28136</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
@@ -3563,7 +3840,7 @@
         <v>14324</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
@@ -3628,7 +3905,7 @@
         <v>11441</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
@@ -3693,7 +3970,7 @@
         <v>26005</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>28</v>
       </c>
@@ -3758,7 +4035,7 @@
         <v>3266</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>29</v>
       </c>
@@ -3823,7 +4100,7 @@
         <v>17696</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>30</v>
       </c>
@@ -3888,7 +4165,7 @@
         <v>8533</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>31</v>
       </c>
@@ -3953,7 +4230,7 @@
         <v>14630</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
@@ -4018,7 +4295,7 @@
         <v>16692</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
@@ -4083,7 +4360,7 @@
         <v>7680</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>34</v>
       </c>
@@ -4148,7 +4425,7 @@
         <v>80046</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>35</v>
       </c>
@@ -4213,7 +4490,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>36</v>
       </c>
@@ -4278,7 +4555,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>37</v>
       </c>
@@ -4343,7 +4620,7 @@
         <v>77780</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>10</v>
       </c>
@@ -4408,7 +4685,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>38</v>
       </c>
@@ -4473,7 +4750,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
@@ -4538,7 +4815,7 @@
         <v>3262</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>40</v>
       </c>
@@ -4603,7 +4880,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>41</v>
       </c>
@@ -4668,7 +4945,7 @@
         <v>13512</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
         <v>42</v>
       </c>
@@ -4733,7 +5010,7 @@
         <v>5598</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
         <v>43</v>
       </c>
@@ -4798,7 +5075,7 @@
         <v>4251</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
@@ -4863,7 +5140,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
@@ -4928,7 +5205,7 @@
         <v>14304</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>46</v>
       </c>
@@ -4993,7 +5270,7 @@
         <v>5570</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
         <v>47</v>
       </c>
@@ -5058,7 +5335,7 @@
         <v>4345</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
         <v>24</v>
       </c>
@@ -5123,7 +5400,7 @@
         <v>3182</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
         <v>48</v>
       </c>
@@ -5188,7 +5465,7 @@
         <v>5435</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>49</v>
       </c>
@@ -5253,7 +5530,7 @@
         <v>5257</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>50</v>
       </c>
@@ -5318,7 +5595,7 @@
         <v>4336</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>51</v>
       </c>
@@ -5383,7 +5660,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
         <v>52</v>
       </c>
@@ -5448,7 +5725,7 @@
         <v>22788</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>35</v>
       </c>
@@ -5513,7 +5790,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
         <v>36</v>
       </c>
@@ -5578,7 +5855,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
         <v>37</v>
       </c>
@@ -5643,7 +5920,7 @@
         <v>20049</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
         <v>10</v>
       </c>
@@ -5708,7 +5985,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
         <v>39</v>
       </c>
@@ -5773,7 +6050,7 @@
         <v>3814</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
         <v>38</v>
       </c>
@@ -5838,7 +6115,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
         <v>43</v>
       </c>
@@ -5903,7 +6180,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
         <v>44</v>
       </c>
@@ -5968,7 +6245,7 @@
         <v>4079</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
         <v>53</v>
       </c>
@@ -6033,7 +6310,7 @@
         <v>2961</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
         <v>54</v>
       </c>
@@ -6098,7 +6375,7 @@
         <v>3561</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>55</v>
       </c>
@@ -6163,7 +6440,7 @@
         <v>2739</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="5" t="s">
         <v>56</v>
       </c>
@@ -6228,7 +6505,7 @@
         <v>91011</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
         <v>35</v>
       </c>
@@ -6293,7 +6570,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
         <v>36</v>
       </c>
@@ -6358,7 +6635,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
         <v>37</v>
       </c>
@@ -6423,7 +6700,7 @@
         <v>89307</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
         <v>10</v>
       </c>
@@ -6488,7 +6765,7 @@
         <v>7279</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
         <v>39</v>
       </c>
@@ -6553,7 +6830,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
         <v>57</v>
       </c>
@@ -6618,7 +6895,7 @@
         <v>9356</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
         <v>58</v>
       </c>
@@ -6683,7 +6960,7 @@
         <v>17805</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
         <v>59</v>
       </c>
@@ -6748,7 +7025,7 @@
         <v>21060</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
         <v>60</v>
       </c>
@@ -6813,7 +7090,7 @@
         <v>4531</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
         <v>38</v>
       </c>
@@ -6878,7 +7155,7 @@
         <v>11628</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
         <v>61</v>
       </c>
@@ -6943,7 +7220,7 @@
         <v>16829</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
         <v>62</v>
       </c>
@@ -7008,7 +7285,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
         <v>63</v>
       </c>
@@ -7073,7 +7350,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="5" t="s">
         <v>64</v>
       </c>
@@ -7138,7 +7415,7 @@
         <v>15016</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="5" t="s">
         <v>39</v>
       </c>
@@ -7203,7 +7480,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="5" t="s">
         <v>38</v>
       </c>
@@ -7268,7 +7545,7 @@
         <v>4833</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="5" t="s">
         <v>43</v>
       </c>
@@ -7333,7 +7610,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="5" t="s">
         <v>44</v>
       </c>
@@ -7398,7 +7675,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="5" t="s">
         <v>65</v>
       </c>
@@ -7463,7 +7740,7 @@
         <v>3921</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="5" t="s">
         <v>66</v>
       </c>
@@ -7528,7 +7805,7 @@
         <v>13153</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
         <v>39</v>
       </c>
@@ -7593,7 +7870,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="5" t="s">
         <v>10</v>
       </c>
@@ -7658,7 +7935,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="5" t="s">
         <v>38</v>
       </c>
@@ -7723,7 +8000,7 @@
         <v>4186</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="5" t="s">
         <v>67</v>
       </c>
@@ -7788,7 +8065,7 @@
         <v>5415</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="5" t="s">
         <v>68</v>
       </c>
@@ -7853,7 +8130,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="5" t="s">
         <v>69</v>
       </c>
@@ -7918,7 +8195,7 @@
         <v>12763</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="5" t="s">
         <v>35</v>
       </c>
@@ -7983,7 +8260,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="5" t="s">
         <v>36</v>
       </c>
@@ -8048,7 +8325,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="5" t="s">
         <v>37</v>
       </c>
@@ -8113,7 +8390,7 @@
         <v>9932</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
         <v>10</v>
       </c>
@@ -8178,7 +8455,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="5" t="s">
         <v>43</v>
       </c>
@@ -8243,7 +8520,7 @@
         <v>5695</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="5" t="s">
         <v>39</v>
       </c>
@@ -8308,7 +8585,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="5" t="s">
         <v>44</v>
       </c>
@@ -8373,7 +8650,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="5" t="s">
         <v>70</v>
       </c>
@@ -8438,7 +8715,7 @@
         <v>2831</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="5" t="s">
         <v>71</v>
       </c>
@@ -8503,7 +8780,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="5" t="s">
         <v>35</v>
       </c>
@@ -8568,7 +8845,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="5" t="s">
         <v>36</v>
       </c>
@@ -8633,7 +8910,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="5" t="s">
         <v>37</v>
       </c>
@@ -8698,7 +8975,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="5" t="s">
         <v>72</v>
       </c>
@@ -8763,7 +9040,7 @@
         <v>3376</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="5" t="s">
         <v>73</v>
       </c>
@@ -8828,7 +9105,7 @@
         <v>298634</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="5" t="s">
         <v>35</v>
       </c>
@@ -8893,7 +9170,7 @@
         <v>24359</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="5" t="s">
         <v>36</v>
       </c>
@@ -8958,7 +9235,7 @@
         <v>30036</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="5" t="s">
         <v>37</v>
       </c>
@@ -9023,7 +9300,7 @@
         <v>244239</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="5" t="s">
         <v>74</v>
       </c>
@@ -9088,7 +9365,7 @@
         <v>23335</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="5" t="s">
         <v>75</v>
       </c>
@@ -9153,7 +9430,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="5" t="s">
         <v>76</v>
       </c>
@@ -9218,7 +9495,7 @@
         <v>3997</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="5" t="s">
         <v>77</v>
       </c>
@@ -9283,7 +9560,7 @@
         <v>6144</v>
       </c>
     </row>
-    <row r="113" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="5" t="s">
         <v>78</v>
       </c>
@@ -9348,7 +9625,7 @@
         <v>11902</v>
       </c>
     </row>
-    <row r="114" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="5" t="s">
         <v>79</v>
       </c>
@@ -9413,7 +9690,7 @@
         <v>32696</v>
       </c>
     </row>
-    <row r="115" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="5" t="s">
         <v>80</v>
       </c>
@@ -9478,7 +9755,7 @@
         <v>4039</v>
       </c>
     </row>
-    <row r="116" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="5" t="s">
         <v>81</v>
       </c>
@@ -9543,7 +9820,7 @@
         <v>5789</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="5" t="s">
         <v>82</v>
       </c>
@@ -9608,7 +9885,7 @@
         <v>22868</v>
       </c>
     </row>
-    <row r="118" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="5" t="s">
         <v>83</v>
       </c>
@@ -9673,7 +9950,7 @@
         <v>6410</v>
       </c>
     </row>
-    <row r="119" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="5" t="s">
         <v>84</v>
       </c>
@@ -9738,7 +10015,7 @@
         <v>11060</v>
       </c>
     </row>
-    <row r="120" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="5" t="s">
         <v>85</v>
       </c>
@@ -9803,7 +10080,7 @@
         <v>4139</v>
       </c>
     </row>
-    <row r="121" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="5" t="s">
         <v>86</v>
       </c>
@@ -9868,7 +10145,7 @@
         <v>6921</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="5" t="s">
         <v>87</v>
       </c>
@@ -9933,7 +10210,7 @@
         <v>22470</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="5" t="s">
         <v>88</v>
       </c>
@@ -9998,7 +10275,7 @@
         <v>5365</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="5" t="s">
         <v>89</v>
       </c>
@@ -10063,7 +10340,7 @@
         <v>6957</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="5" t="s">
         <v>90</v>
       </c>
@@ -10128,7 +10405,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="126" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="5" t="s">
         <v>91</v>
       </c>
@@ -10193,7 +10470,7 @@
         <v>12995</v>
       </c>
     </row>
-    <row r="127" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="5" t="s">
         <v>92</v>
       </c>
@@ -10258,7 +10535,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="128" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="5" t="s">
         <v>93</v>
       </c>
@@ -10323,7 +10600,7 @@
         <v>10403</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="5" t="s">
         <v>94</v>
       </c>
@@ -10388,7 +10665,7 @@
         <v>37383</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="5" t="s">
         <v>95</v>
       </c>
@@ -10453,7 +10730,7 @@
         <v>10470</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="5" t="s">
         <v>96</v>
       </c>
@@ -10518,7 +10795,7 @@
         <v>20196</v>
       </c>
     </row>
-    <row r="132" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="5" t="s">
         <v>97</v>
       </c>
@@ -10583,7 +10860,7 @@
         <v>6717</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="5" t="s">
         <v>98</v>
       </c>
@@ -10648,7 +10925,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="134" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="5" t="s">
         <v>99</v>
       </c>
@@ -10713,7 +10990,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="5" t="s">
         <v>100</v>
       </c>
@@ -10778,7 +11055,7 @@
         <v>8358</v>
       </c>
     </row>
-    <row r="136" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="5" t="s">
         <v>101</v>
       </c>
@@ -10843,7 +11120,7 @@
         <v>3115</v>
       </c>
     </row>
-    <row r="137" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="5" t="s">
         <v>102</v>
       </c>
@@ -10908,7 +11185,7 @@
         <v>13220</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="5" t="s">
         <v>103</v>
       </c>
@@ -10973,7 +11250,7 @@
         <v>4522</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="5" t="s">
         <v>104</v>
       </c>
@@ -11038,7 +11315,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="5" t="s">
         <v>105</v>
       </c>
@@ -11103,7 +11380,7 @@
         <v>16825</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="5" t="s">
         <v>106</v>
       </c>
@@ -11168,7 +11445,7 @@
         <v>15082</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="5" t="s">
         <v>107</v>
       </c>
@@ -11233,7 +11510,7 @@
         <v>4755</v>
       </c>
     </row>
-    <row r="143" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="5" t="s">
         <v>108</v>
       </c>
@@ -11298,7 +11575,7 @@
         <v>5140</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="5" t="s">
         <v>109</v>
       </c>
@@ -11363,7 +11640,7 @@
         <v>5187</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="5" t="s">
         <v>110</v>
       </c>
@@ -11428,7 +11705,7 @@
         <v>7850</v>
       </c>
     </row>
-    <row r="146" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="5" t="s">
         <v>111</v>
       </c>
@@ -11493,7 +11770,7 @@
         <v>4239</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="5" t="s">
         <v>112</v>
       </c>
@@ -11558,7 +11835,7 @@
         <v>3522</v>
       </c>
     </row>
-    <row r="148" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="5" t="s">
         <v>113</v>
       </c>
@@ -11623,7 +11900,7 @@
         <v>13078</v>
       </c>
     </row>
-    <row r="149" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="5" t="s">
         <v>114</v>
       </c>
@@ -11688,7 +11965,7 @@
         <v>24721</v>
       </c>
     </row>
-    <row r="150" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="5" t="s">
         <v>115</v>
       </c>
@@ -11753,7 +12030,7 @@
         <v>4514</v>
       </c>
     </row>
-    <row r="151" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="5" t="s">
         <v>116</v>
       </c>
@@ -11818,7 +12095,7 @@
         <v>3481</v>
       </c>
     </row>
-    <row r="152" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="5" t="s">
         <v>117</v>
       </c>
@@ -11883,7 +12160,7 @@
         <v>5651</v>
       </c>
     </row>
-    <row r="153" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="5" t="s">
         <v>118</v>
       </c>
@@ -11948,7 +12225,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="154" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="5" t="s">
         <v>119</v>
       </c>
@@ -12013,7 +12290,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="155" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="5" t="s">
         <v>120</v>
       </c>
@@ -12078,7 +12355,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="156" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="5" t="s">
         <v>121</v>
       </c>
@@ -12143,7 +12420,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="157" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="5" t="s">
         <v>122</v>
       </c>
@@ -12208,7 +12485,7 @@
         <v>16804</v>
       </c>
     </row>
-    <row r="158" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="5" t="s">
         <v>35</v>
       </c>
@@ -12273,7 +12550,7 @@
         <v>3323</v>
       </c>
     </row>
-    <row r="159" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="5" t="s">
         <v>36</v>
       </c>
@@ -12338,7 +12615,7 @@
         <v>6072</v>
       </c>
     </row>
-    <row r="160" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="5" t="s">
         <v>37</v>
       </c>
@@ -12403,7 +12680,7 @@
         <v>7409</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="5" t="s">
         <v>123</v>
       </c>
@@ -12468,7 +12745,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="162" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="5" t="s">
         <v>124</v>
       </c>
@@ -12533,7 +12810,7 @@
         <v>3373</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="5" t="s">
         <v>125</v>
       </c>
@@ -12598,7 +12875,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="164" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="5" t="s">
         <v>126</v>
       </c>
@@ -12663,7 +12940,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="165" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="5" t="s">
         <v>127</v>
       </c>
@@ -12728,7 +13005,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="166" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="5" t="s">
         <v>128</v>
       </c>
@@ -12793,7 +13070,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="5" t="s">
         <v>129</v>
       </c>
@@ -12858,7 +13135,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="168" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="5" t="s">
         <v>130</v>
       </c>
@@ -12923,7 +13200,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="169" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="5" t="s">
         <v>131</v>
       </c>
@@ -12988,7 +13265,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="5" t="s">
         <v>132</v>
       </c>
@@ -13053,7 +13330,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="5" t="s">
         <v>133</v>
       </c>
@@ -13118,7 +13395,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="5" t="s">
         <v>134</v>
       </c>
@@ -13183,7 +13460,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="173" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="5" t="s">
         <v>135</v>
       </c>
@@ -13248,7 +13525,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="174" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="5" t="s">
         <v>136</v>
       </c>
@@ -13313,7 +13590,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="175" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="5" t="s">
         <v>137</v>
       </c>
@@ -13378,7 +13655,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="176" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="5" t="s">
         <v>138</v>
       </c>
@@ -13443,7 +13720,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="177" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="5" t="s">
         <v>139</v>
       </c>
@@ -13508,7 +13785,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="178" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="5" t="s">
         <v>140</v>
       </c>
@@ -13573,7 +13850,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="179" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="5" t="s">
         <v>141</v>
       </c>
@@ -13638,7 +13915,7 @@
         <v>19777</v>
       </c>
     </row>
-    <row r="180" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="5" t="s">
         <v>35</v>
       </c>
@@ -13703,7 +13980,7 @@
         <v>5372</v>
       </c>
     </row>
-    <row r="181" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="5" t="s">
         <v>36</v>
       </c>
@@ -13768,7 +14045,7 @@
         <v>7395</v>
       </c>
     </row>
-    <row r="182" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="5" t="s">
         <v>37</v>
       </c>
@@ -13833,7 +14110,7 @@
         <v>7010</v>
       </c>
     </row>
-    <row r="183" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="5" t="s">
         <v>142</v>
       </c>
@@ -13898,7 +14175,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="184" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="5" t="s">
         <v>143</v>
       </c>
@@ -13963,7 +14240,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="185" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185" s="5" t="s">
         <v>144</v>
       </c>
@@ -14028,7 +14305,7 @@
         <v>9048</v>
       </c>
     </row>
-    <row r="186" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186" s="5" t="s">
         <v>145</v>
       </c>
@@ -14093,7 +14370,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="187" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="5" t="s">
         <v>146</v>
       </c>
@@ -14158,7 +14435,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="188" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="5" t="s">
         <v>147</v>
       </c>
@@ -14223,7 +14500,7 @@
         <v>4345</v>
       </c>
     </row>
-    <row r="189" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189" s="5" t="s">
         <v>148</v>
       </c>
@@ -14288,7 +14565,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="190" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190" s="5" t="s">
         <v>149</v>
       </c>
@@ -14353,7 +14630,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="191" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191" s="5" t="s">
         <v>150</v>
       </c>
@@ -14418,7 +14695,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="192" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="5" t="s">
         <v>151</v>
       </c>
@@ -14483,7 +14760,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="193" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="5" t="s">
         <v>152</v>
       </c>
@@ -14548,7 +14825,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="194" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="5" t="s">
         <v>153</v>
       </c>
@@ -14613,7 +14890,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="195" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="5" t="s">
         <v>154</v>
       </c>
@@ -14678,7 +14955,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="196" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196" s="5" t="s">
         <v>155</v>
       </c>
@@ -14743,7 +15020,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="197" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="5" t="s">
         <v>156</v>
       </c>
@@ -14808,7 +15085,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="198" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="5" t="s">
         <v>157</v>
       </c>
@@ -14873,7 +15150,7 @@
         <v>35734</v>
       </c>
     </row>
-    <row r="199" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="5" t="s">
         <v>35</v>
       </c>
@@ -14938,7 +15215,7 @@
         <v>7437</v>
       </c>
     </row>
-    <row r="200" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="5" t="s">
         <v>36</v>
       </c>
@@ -15003,7 +15280,7 @@
         <v>11278</v>
       </c>
     </row>
-    <row r="201" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201" s="5" t="s">
         <v>37</v>
       </c>
@@ -15068,7 +15345,7 @@
         <v>17019</v>
       </c>
     </row>
-    <row r="202" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="5" t="s">
         <v>158</v>
       </c>
@@ -15133,7 +15410,7 @@
         <v>15031</v>
       </c>
     </row>
-    <row r="203" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="5" t="s">
         <v>159</v>
       </c>
@@ -15198,7 +15475,7 @@
         <v>3287</v>
       </c>
     </row>
-    <row r="204" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="5" t="s">
         <v>160</v>
       </c>
@@ -15263,7 +15540,7 @@
         <v>11744</v>
       </c>
     </row>
-    <row r="205" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="5" t="s">
         <v>161</v>
       </c>
@@ -15328,7 +15605,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="206" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206" s="5" t="s">
         <v>162</v>
       </c>
@@ -15393,7 +15670,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="207" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207" s="5" t="s">
         <v>163</v>
       </c>
@@ -15458,7 +15735,7 @@
         <v>4513</v>
       </c>
     </row>
-    <row r="208" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208" s="5" t="s">
         <v>164</v>
       </c>
@@ -15523,7 +15800,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="209" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209" s="5" t="s">
         <v>165</v>
       </c>
@@ -15588,7 +15865,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="210" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210" s="5" t="s">
         <v>166</v>
       </c>
@@ -15653,7 +15930,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="211" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211" s="5" t="s">
         <v>167</v>
       </c>
@@ -15718,7 +15995,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="212" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212" s="5" t="s">
         <v>168</v>
       </c>
@@ -15783,7 +16060,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="213" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213" s="5" t="s">
         <v>169</v>
       </c>
@@ -15848,7 +16125,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="214" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214" s="5" t="s">
         <v>170</v>
       </c>
@@ -15913,7 +16190,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="215" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215" s="5" t="s">
         <v>171</v>
       </c>
@@ -15978,7 +16255,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="216" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216" s="5" t="s">
         <v>172</v>
       </c>
@@ -16043,7 +16320,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="217" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="5" t="s">
         <v>173</v>
       </c>
@@ -16108,7 +16385,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="218" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218" s="5" t="s">
         <v>174</v>
       </c>
@@ -16173,7 +16450,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="219" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219" s="5" t="s">
         <v>175</v>
       </c>
@@ -16238,7 +16515,7 @@
         <v>18287</v>
       </c>
     </row>
-    <row r="220" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220" s="5" t="s">
         <v>35</v>
       </c>
@@ -16303,7 +16580,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="221" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221" s="5" t="s">
         <v>36</v>
       </c>
@@ -16368,7 +16645,7 @@
         <v>7101</v>
       </c>
     </row>
-    <row r="222" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222" s="5" t="s">
         <v>37</v>
       </c>
@@ -16433,7 +16710,7 @@
         <v>8908</v>
       </c>
     </row>
-    <row r="223" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223" s="5" t="s">
         <v>176</v>
       </c>
@@ -16498,7 +16775,7 @@
         <v>3801</v>
       </c>
     </row>
-    <row r="224" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224" s="5" t="s">
         <v>177</v>
       </c>
@@ -16563,7 +16840,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="225" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225" s="5" t="s">
         <v>178</v>
       </c>
@@ -16628,7 +16905,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="226" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226" s="5" t="s">
         <v>179</v>
       </c>
@@ -16693,7 +16970,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="227" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="5" t="s">
         <v>180</v>
       </c>
@@ -16758,7 +17035,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="228" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="5" t="s">
         <v>181</v>
       </c>
@@ -16823,7 +17100,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="229" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229" s="5" t="s">
         <v>182</v>
       </c>
@@ -16888,7 +17165,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="230" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230" s="5" t="s">
         <v>183</v>
       </c>
@@ -16953,7 +17230,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="231" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231" s="5" t="s">
         <v>184</v>
       </c>
@@ -17018,7 +17295,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="232" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232" s="5" t="s">
         <v>185</v>
       </c>
@@ -17083,7 +17360,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="233" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233" s="5" t="s">
         <v>186</v>
       </c>
@@ -17148,7 +17425,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="234" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234" s="5" t="s">
         <v>187</v>
       </c>
@@ -17213,7 +17490,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="235" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235" s="5" t="s">
         <v>188</v>
       </c>
@@ -17278,7 +17555,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="236" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236" s="5" t="s">
         <v>189</v>
       </c>
@@ -17343,7 +17620,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="237" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237" s="5" t="s">
         <v>190</v>
       </c>
@@ -17408,7 +17685,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="238" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238" s="5" t="s">
         <v>191</v>
       </c>
@@ -17473,7 +17750,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="239" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239" s="5" t="s">
         <v>192</v>
       </c>
@@ -17538,7 +17815,7 @@
         <v>26971</v>
       </c>
     </row>
-    <row r="240" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240" s="5" t="s">
         <v>35</v>
       </c>
@@ -17603,7 +17880,7 @@
         <v>8588</v>
       </c>
     </row>
-    <row r="241" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A241" s="5" t="s">
         <v>36</v>
       </c>
@@ -17668,7 +17945,7 @@
         <v>9665</v>
       </c>
     </row>
-    <row r="242" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A242" s="5" t="s">
         <v>37</v>
       </c>
@@ -17733,7 +18010,7 @@
         <v>8718</v>
       </c>
     </row>
-    <row r="243" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243" s="5" t="s">
         <v>193</v>
       </c>
@@ -17798,7 +18075,7 @@
         <v>3334</v>
       </c>
     </row>
-    <row r="244" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244" s="5" t="s">
         <v>194</v>
       </c>
@@ -17863,7 +18140,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="245" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245" s="5" t="s">
         <v>195</v>
       </c>
@@ -17928,7 +18205,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="246" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A246" s="5" t="s">
         <v>196</v>
       </c>
@@ -17993,7 +18270,7 @@
         <v>3017</v>
       </c>
     </row>
-    <row r="247" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A247" s="5" t="s">
         <v>197</v>
       </c>
@@ -18058,7 +18335,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="248" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248" s="5" t="s">
         <v>198</v>
       </c>
@@ -18123,7 +18400,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="249" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249" s="5" t="s">
         <v>199</v>
       </c>
@@ -18188,7 +18465,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="250" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250" s="5" t="s">
         <v>200</v>
       </c>
@@ -18253,7 +18530,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="251" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251" s="5" t="s">
         <v>201</v>
       </c>
@@ -18318,7 +18595,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="252" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A252" s="5" t="s">
         <v>202</v>
       </c>
@@ -18383,7 +18660,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="253" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A253" s="5" t="s">
         <v>203</v>
       </c>
@@ -18448,7 +18725,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="254" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254" s="5" t="s">
         <v>204</v>
       </c>
@@ -18513,7 +18790,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="255" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A255" s="5" t="s">
         <v>205</v>
       </c>
@@ -18578,7 +18855,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="256" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A256" s="5" t="s">
         <v>206</v>
       </c>
@@ -18643,7 +18920,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="257" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257" s="5" t="s">
         <v>207</v>
       </c>
@@ -18708,7 +18985,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="258" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A258" s="5" t="s">
         <v>208</v>
       </c>
@@ -18773,7 +19050,7 @@
         <v>3618</v>
       </c>
     </row>
-    <row r="259" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A259" s="5" t="s">
         <v>209</v>
       </c>
@@ -18838,7 +19115,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="260" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A260" s="5" t="s">
         <v>210</v>
       </c>
@@ -18903,7 +19180,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="261" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A261" s="5" t="s">
         <v>211</v>
       </c>
@@ -18968,7 +19245,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="262" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A262" s="5" t="s">
         <v>212</v>
       </c>
@@ -19033,7 +19310,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="263" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A263" s="5" t="s">
         <v>213</v>
       </c>
@@ -19098,7 +19375,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="264" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A264" s="5" t="s">
         <v>214</v>
       </c>
@@ -19163,7 +19440,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="265" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A265" s="5" t="s">
         <v>215</v>
       </c>
@@ -19228,7 +19505,7 @@
         <v>34480</v>
       </c>
     </row>
-    <row r="266" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A266" s="5" t="s">
         <v>35</v>
       </c>
@@ -19293,7 +19570,7 @@
         <v>7438</v>
       </c>
     </row>
-    <row r="267" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A267" s="5" t="s">
         <v>36</v>
       </c>
@@ -19358,7 +19635,7 @@
         <v>13871</v>
       </c>
     </row>
-    <row r="268" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A268" s="5" t="s">
         <v>37</v>
       </c>
@@ -19423,7 +19700,7 @@
         <v>13171</v>
       </c>
     </row>
-    <row r="269" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A269" s="5" t="s">
         <v>216</v>
       </c>
@@ -19488,7 +19765,7 @@
         <v>3657</v>
       </c>
     </row>
-    <row r="270" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A270" s="5" t="s">
         <v>43</v>
       </c>
@@ -19553,7 +19830,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="271" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A271" s="5" t="s">
         <v>44</v>
       </c>
@@ -19618,7 +19895,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="272" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A272" s="5" t="s">
         <v>217</v>
       </c>
@@ -19683,7 +19960,7 @@
         <v>4592</v>
       </c>
     </row>
-    <row r="273" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A273" s="5" t="s">
         <v>218</v>
       </c>
@@ -19748,7 +20025,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="274" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A274" s="5" t="s">
         <v>219</v>
       </c>
@@ -19813,7 +20090,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="275" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A275" s="5" t="s">
         <v>220</v>
       </c>
@@ -19878,7 +20155,7 @@
         <v>3721</v>
       </c>
     </row>
-    <row r="276" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A276" s="5" t="s">
         <v>221</v>
       </c>
@@ -19943,7 +20220,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="277" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A277" s="5" t="s">
         <v>222</v>
       </c>
@@ -20008,7 +20285,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="278" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A278" s="5" t="s">
         <v>223</v>
       </c>
@@ -20073,7 +20350,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="279" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A279" s="5" t="s">
         <v>224</v>
       </c>
@@ -20138,7 +20415,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="280" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A280" s="5" t="s">
         <v>225</v>
       </c>
@@ -20203,7 +20480,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="281" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A281" s="5" t="s">
         <v>226</v>
       </c>
@@ -20268,7 +20545,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="282" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A282" s="5" t="s">
         <v>227</v>
       </c>
@@ -20333,7 +20610,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="283" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A283" s="5" t="s">
         <v>228</v>
       </c>
@@ -20398,7 +20675,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="284" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A284" s="5" t="s">
         <v>229</v>
       </c>
@@ -20463,7 +20740,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="285" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A285" s="5" t="s">
         <v>230</v>
       </c>
@@ -20528,7 +20805,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="286" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A286" s="5" t="s">
         <v>231</v>
       </c>
@@ -20593,7 +20870,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="287" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A287" s="5" t="s">
         <v>232</v>
       </c>
@@ -20658,7 +20935,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="288" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A288" s="5" t="s">
         <v>233</v>
       </c>
@@ -20723,7 +21000,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="289" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A289" s="5" t="s">
         <v>234</v>
       </c>
@@ -20788,7 +21065,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="290" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A290" s="5" t="s">
         <v>235</v>
       </c>
@@ -20853,7 +21130,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="291" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A291" s="5" t="s">
         <v>236</v>
       </c>
@@ -20918,7 +21195,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="292" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A292" s="5" t="s">
         <v>237</v>
       </c>
@@ -20983,7 +21260,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="293" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A293" s="5" t="s">
         <v>238</v>
       </c>
@@ -21048,7 +21325,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="294" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A294" s="5" t="s">
         <v>239</v>
       </c>
@@ -21113,7 +21390,7 @@
         <v>45805</v>
       </c>
     </row>
-    <row r="295" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A295" s="5" t="s">
         <v>35</v>
       </c>
@@ -21178,7 +21455,7 @@
         <v>5996</v>
       </c>
     </row>
-    <row r="296" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A296" s="5" t="s">
         <v>36</v>
       </c>
@@ -21243,7 +21520,7 @@
         <v>13026</v>
       </c>
     </row>
-    <row r="297" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A297" s="5" t="s">
         <v>37</v>
       </c>
@@ -21308,7 +21585,7 @@
         <v>26783</v>
       </c>
     </row>
-    <row r="298" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A298" s="5" t="s">
         <v>240</v>
       </c>
@@ -21373,7 +21650,7 @@
         <v>3385</v>
       </c>
     </row>
-    <row r="299" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A299" s="5" t="s">
         <v>241</v>
       </c>
@@ -21438,7 +21715,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="300" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A300" s="5" t="s">
         <v>242</v>
       </c>
@@ -21503,7 +21780,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="301" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A301" s="5" t="s">
         <v>243</v>
       </c>
@@ -21568,7 +21845,7 @@
         <v>7132</v>
       </c>
     </row>
-    <row r="302" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A302" s="5" t="s">
         <v>244</v>
       </c>
@@ -21633,7 +21910,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="303" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A303" s="5" t="s">
         <v>245</v>
       </c>
@@ -21698,7 +21975,7 @@
         <v>2811</v>
       </c>
     </row>
-    <row r="304" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A304" s="5" t="s">
         <v>246</v>
       </c>
@@ -21763,7 +22040,7 @@
         <v>3539</v>
       </c>
     </row>
-    <row r="305" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A305" s="5" t="s">
         <v>247</v>
       </c>
@@ -21828,7 +22105,7 @@
         <v>16185</v>
       </c>
     </row>
-    <row r="306" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A306" s="5" t="s">
         <v>248</v>
       </c>
@@ -21893,7 +22170,7 @@
         <v>3716</v>
       </c>
     </row>
-    <row r="307" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A307" s="5" t="s">
         <v>249</v>
       </c>
@@ -21958,7 +22235,7 @@
         <v>5434</v>
       </c>
     </row>
-    <row r="308" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A308" s="5" t="s">
         <v>250</v>
       </c>
@@ -22023,7 +22300,7 @@
         <v>3696</v>
       </c>
     </row>
-    <row r="309" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A309" s="5" t="s">
         <v>251</v>
       </c>
@@ -22088,7 +22365,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="310" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A310" s="5" t="s">
         <v>252</v>
       </c>
@@ -22153,7 +22430,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="311" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A311" s="5" t="s">
         <v>253</v>
       </c>
@@ -22218,7 +22495,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="312" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A312" s="5" t="s">
         <v>254</v>
       </c>
@@ -22283,7 +22560,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="313" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A313" s="5" t="s">
         <v>255</v>
       </c>
@@ -22348,7 +22625,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="314" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A314" s="5" t="s">
         <v>139</v>
       </c>
@@ -22413,7 +22690,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="315" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A315" s="5" t="s">
         <v>256</v>
       </c>
@@ -22478,7 +22755,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="316" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A316" s="5" t="s">
         <v>257</v>
       </c>
@@ -22543,7 +22820,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="317" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A317" s="5" t="s">
         <v>258</v>
       </c>
@@ -22608,7 +22885,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="318" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A318" s="5" t="s">
         <v>259</v>
       </c>
@@ -22673,7 +22950,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="319" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A319" s="5" t="s">
         <v>260</v>
       </c>
@@ -22738,7 +23015,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="320" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A320" s="5" t="s">
         <v>261</v>
       </c>
@@ -22803,7 +23080,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="321" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A321" s="5" t="s">
         <v>262</v>
       </c>
@@ -22868,7 +23145,7 @@
         <v>18133</v>
       </c>
     </row>
-    <row r="322" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A322" s="5" t="s">
         <v>35</v>
       </c>
@@ -22933,7 +23210,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="323" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A323" s="5" t="s">
         <v>36</v>
       </c>
@@ -22998,7 +23275,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="324" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A324" s="5" t="s">
         <v>37</v>
       </c>
@@ -23063,7 +23340,7 @@
         <v>13782</v>
       </c>
     </row>
-    <row r="325" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A325" s="5" t="s">
         <v>263</v>
       </c>
@@ -23128,7 +23405,7 @@
         <v>14189</v>
       </c>
     </row>
-    <row r="326" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A326" s="4" t="s">
         <v>264</v>
       </c>
@@ -23211,319 +23488,319 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.796875" style="2"/>
+    <col min="1" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="9" t="s">
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="9" t="s">
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="9" t="s">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="9" t="s">
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="9" t="s">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="9" t="s">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="9" t="s">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="9" t="s">
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="9" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="9" t="s">
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B27" s="9"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="9" t="s">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B29" s="9"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" s="9" t="s">
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B31" s="9"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="9" t="s">
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B33" s="9"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="9" t="s">
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B35" s="9"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" s="9" t="s">
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B37" s="9"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" s="9" t="s">
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B39" s="9"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" s="9" t="s">
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B40" s="9"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" s="9" t="s">
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B41" s="9"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" s="9" t="s">
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B43" s="9"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" s="9" t="s">
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B44" s="9"/>
+      <c r="B44" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
